--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2018_ICPData.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2018_ICPData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/Virginia Tech/Sed Traps/2018/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36004F34-D6A0-CD46-9DAF-698AAA116485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076D47E4-F6DC-F54A-A9D5-D6B4B9F2B4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nick" sheetId="3" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>13_21Sep18</t>
   </si>
   <si>
-    <t>14_21Sep18</t>
-  </si>
-  <si>
     <t>13_05Oct18</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>10_1</t>
+  </si>
+  <si>
+    <t>7_21Sep18</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3">
         <v>278.92992520693537</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3">
         <v>851.99390035019655</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3">
         <v>502.69503645559598</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
         <v>568.61741238362549</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="3">
         <v>505.68019195545696</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3">
         <v>573.1258883808074</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="3">
         <v>622.46813198095219</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="3">
         <v>140.33675664528059</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="5">
         <v>11.137836274070336</v>

--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2018_ICPData.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/2018_ICPData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cecewood/Documents/GitHub/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Metals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076D47E4-F6DC-F54A-A9D5-D6B4B9F2B4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8530C1-2427-F54F-94C8-FA45BC51B3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,9 +125,6 @@
     <t>11_21May18</t>
   </si>
   <si>
-    <t>12_21May18</t>
-  </si>
-  <si>
     <t>11_04Jun18</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>7_21Sep18</t>
+  </si>
+  <si>
+    <t>12_28May18</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3">
         <v>538.18390555362703</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3">
         <v>423.14090155903938</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3">
         <v>503.38442102020872</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="3">
         <v>633.08661082424942</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3">
         <v>555.95739740236536</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3">
         <v>509.63858760164879</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3">
         <v>623.31052384891689</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3">
         <v>570.71288816449078</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3">
         <v>464.76699300944324</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3">
         <v>600.58871997113818</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3">
         <v>463.24523372782727</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3">
         <v>439.47697620916222</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3">
         <v>594.46235786878469</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3">
         <v>636.87896856104669</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>607.95246300343308</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3">
         <v>882.89603761319427</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3">
         <v>601.49888533815511</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3">
         <v>544.75784057127385</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3">
         <v>278.92992520693537</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3">
         <v>851.99390035019655</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3">
         <v>502.69503645559598</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3">
         <v>568.61741238362549</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3">
         <v>505.68019195545696</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3">
         <v>573.1258883808074</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3">
         <v>622.46813198095219</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="3">
         <v>140.33675664528059</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="5">
         <v>11.137836274070336</v>
